--- a/data/ducoordinates.xlsx
+++ b/data/ducoordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621847C1-55C4-4630-9019-8E72B82BAB3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916CD31D-A57F-4C73-82F2-7151090D8E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>College Name</t>
   </si>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t xml:space="preserve">School of Open Learning </t>
-  </si>
-  <si>
-    <t>28.514499, 77.299043</t>
   </si>
 </sst>
 </file>
@@ -693,14 +690,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="7"/>
-    <col min="2" max="2" width="47.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="89.109375" style="7" customWidth="1"/>
     <col min="3" max="4" width="12" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
@@ -1027,7 +1024,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>25</v>
@@ -1041,7 +1038,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>26</v>
@@ -1055,7 +1052,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>27</v>
@@ -1069,7 +1066,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>28</v>
@@ -1083,7 +1080,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>29</v>
@@ -1097,7 +1094,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>30</v>
@@ -1111,7 +1108,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>31</v>
@@ -1125,7 +1122,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>32</v>
@@ -1139,7 +1136,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>33</v>
@@ -1153,7 +1150,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>34</v>
@@ -1167,7 +1164,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>35</v>
@@ -1181,7 +1178,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>36</v>
@@ -1195,7 +1192,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>37</v>
@@ -1209,7 +1206,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>38</v>
@@ -1223,7 +1220,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>39</v>
@@ -1237,7 +1234,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>40</v>
@@ -1251,7 +1248,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>41</v>
@@ -1265,7 +1262,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>42</v>
@@ -1279,7 +1276,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>43</v>
@@ -1293,7 +1290,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>44</v>
@@ -1307,7 +1304,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>45</v>
@@ -1321,7 +1318,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>46</v>
@@ -1335,7 +1332,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>47</v>
@@ -1349,7 +1346,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>48</v>
@@ -1363,7 +1360,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>49</v>
@@ -1377,7 +1374,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>50</v>
@@ -1391,7 +1388,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>51</v>
@@ -1405,7 +1402,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>52</v>
@@ -1419,7 +1416,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>53</v>
@@ -1433,7 +1430,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>54</v>
@@ -1447,7 +1444,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>55</v>
@@ -1461,7 +1458,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>56</v>
@@ -1475,7 +1472,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>57</v>
@@ -1489,7 +1486,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>58</v>
@@ -1503,7 +1500,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>59</v>
@@ -1517,7 +1514,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>60</v>
@@ -1531,7 +1528,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>84</v>
@@ -1545,7 +1542,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>61</v>
@@ -1559,7 +1556,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>62</v>
@@ -1573,7 +1570,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>63</v>
@@ -1587,7 +1584,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>64</v>
@@ -1601,7 +1598,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>65</v>
@@ -1615,7 +1612,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>66</v>
@@ -1629,7 +1626,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>67</v>
@@ -1643,7 +1640,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>68</v>
@@ -1657,7 +1654,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>69</v>
@@ -1671,7 +1668,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>70</v>
@@ -1685,7 +1682,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>71</v>
@@ -1699,7 +1696,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>72</v>
@@ -1713,7 +1710,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>73</v>
@@ -1727,7 +1724,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>74</v>
@@ -1741,7 +1738,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>75</v>
@@ -1755,7 +1752,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>76</v>
@@ -1769,7 +1766,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>77</v>
@@ -1783,7 +1780,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>78</v>
@@ -1797,7 +1794,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>79</v>
@@ -1811,7 +1808,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>80</v>
@@ -1825,7 +1822,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>81</v>
@@ -1839,7 +1836,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>82</v>
@@ -1852,8 +1849,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>85</v>
+      <c r="A83" s="5">
+        <v>81</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>83</v>

--- a/data/ducoordinates.xlsx
+++ b/data/ducoordinates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\projects\neighborhood-segementation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916CD31D-A57F-4C73-82F2-7151090D8E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE90F56-40B7-46C6-B21E-FF389E0239AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -281,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,18 +304,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -363,22 +351,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -688,1177 +670,929 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
-    <col min="2" max="2" width="89.109375" style="7" customWidth="1"/>
-    <col min="3" max="4" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="89.109375" style="5" customWidth="1"/>
+    <col min="2" max="3" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
+      <c r="B2" s="4">
         <v>28.538861950000001</v>
       </c>
-      <c r="D2" s="6">
+      <c r="C2" s="4">
         <v>77.264227723145012</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B3" s="1">
         <v>28.794083000000001</v>
       </c>
-      <c r="D3" s="6">
+      <c r="C3" s="4">
         <v>77.037505999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="B4" s="1">
         <v>28.638169000000001</v>
       </c>
-      <c r="D4" s="6">
+      <c r="C4" s="4">
         <v>77.237829000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B5" s="1">
         <v>28.649646000000001</v>
       </c>
-      <c r="D5" s="6">
+      <c r="C5" s="4">
         <v>77.301327999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="B6" s="1">
         <v>28.578050999999999</v>
       </c>
-      <c r="D6" s="6">
+      <c r="C6" s="4">
         <v>77.161460000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6">
+      <c r="B7" s="4">
         <v>28.590613699999999</v>
       </c>
-      <c r="D7" s="6">
+      <c r="C7" s="4">
         <v>77.168210700000003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
+      <c r="B8" s="1">
         <v>28.655999000000001</v>
       </c>
-      <c r="D8" s="6">
+      <c r="C8" s="4">
         <v>77.195182000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
+      <c r="B9" s="4">
         <v>28.619291499999999</v>
       </c>
-      <c r="D9" s="6">
+      <c r="C9" s="4">
         <v>76.932148348016327</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6">
+      <c r="B10" s="4">
         <v>28.626680400000001</v>
       </c>
-      <c r="D10" s="6">
+      <c r="C10" s="4">
         <v>77.232539726066648</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6">
+      <c r="B11" s="4">
         <v>28.601142899999999</v>
       </c>
-      <c r="D11" s="6">
+      <c r="C11" s="4">
         <v>77.068208774986104</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
+      <c r="B12" s="1">
         <v>28.700728000000002</v>
       </c>
-      <c r="D12" s="6">
+      <c r="C12" s="4">
         <v>77.286866000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6">
+      <c r="B13" s="4">
         <v>28.653162999999999</v>
       </c>
-      <c r="D13" s="6">
+      <c r="C13" s="4">
         <v>77.268342000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6">
+      <c r="B14" s="4">
         <v>28.623734599999999</v>
       </c>
-      <c r="D14" s="6">
+      <c r="C14" s="4">
         <v>77.238107099999993</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1">
+      <c r="B15" s="1">
         <v>28.583952</v>
       </c>
-      <c r="D15" s="6">
+      <c r="C15" s="4">
         <v>77.157776999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6">
+      <c r="B16" s="4">
         <v>28.53355165</v>
       </c>
-      <c r="D16" s="6">
+      <c r="C16" s="4">
         <v>77.226847184222635</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6">
+      <c r="B17" s="4">
         <v>28.688182600000001</v>
       </c>
-      <c r="D17" s="6">
+      <c r="C17" s="4">
         <v>77.205711699999995</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6">
+      <c r="B18" s="4">
         <v>28.627880999999999</v>
       </c>
-      <c r="D18" s="6">
+      <c r="C18" s="4">
         <v>77.112318666956298</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1">
+      <c r="B19" s="1">
         <v>28.577828</v>
       </c>
-      <c r="D19" s="6">
+      <c r="C19" s="4">
         <v>77.184747000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6">
+      <c r="B20" s="4">
         <v>28.517031899999999</v>
       </c>
-      <c r="D20" s="6">
+      <c r="C20" s="4">
         <v>77.224170414215806</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1">
+      <c r="B21" s="1">
         <v>28.540233000000001</v>
       </c>
-      <c r="D21" s="6">
+      <c r="C21" s="4">
         <v>77.255627000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1">
+      <c r="B22" s="1">
         <v>28.595327999999999</v>
       </c>
-      <c r="D22" s="6">
+      <c r="C22" s="4">
         <v>77.239884000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="6">
+      <c r="B23" s="4">
         <v>28.5907293</v>
       </c>
-      <c r="D23" s="6">
+      <c r="C23" s="4">
         <v>77.230973500000005</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1">
+      <c r="B24" s="1">
         <v>28.684100000000001</v>
       </c>
-      <c r="D24" s="6">
+      <c r="C24" s="4">
         <v>77.308233999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="6">
+      <c r="B25" s="4">
         <v>28.555014</v>
       </c>
-      <c r="D25" s="6">
+      <c r="C25" s="4">
         <v>77.218434999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="6">
+      <c r="B26" s="4">
         <v>28.5507633</v>
       </c>
-      <c r="D26" s="6">
+      <c r="C26" s="4">
         <v>77.232148800000004</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="6">
+      <c r="B27" s="4">
         <v>28.6839987</v>
       </c>
-      <c r="D27" s="6">
+      <c r="C27" s="4">
         <v>77.212060899999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1">
+      <c r="B28" s="1">
         <v>28.562135999999999</v>
       </c>
-      <c r="D28" s="6">
+      <c r="C28" s="4">
         <v>77.275014999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="6" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="6">
+      <c r="B29" s="4">
         <v>28.6310261</v>
       </c>
-      <c r="D29" s="6">
+      <c r="C29" s="4">
         <v>77.072316766695266</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>28</v>
-      </c>
-      <c r="B30" s="6" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="6">
+      <c r="B30" s="4">
         <v>28.680090849999999</v>
       </c>
-      <c r="D30" s="6">
+      <c r="C30" s="4">
         <v>77.225400004993986</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="6">
+      <c r="B31" s="4">
         <v>28.570219349999999</v>
       </c>
-      <c r="D31" s="6">
+      <c r="C31" s="4">
         <v>77.217849970336232</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="1">
+      <c r="B32" s="1">
         <v>28.641165000000001</v>
       </c>
-      <c r="D32" s="6">
+      <c r="C32" s="4">
         <v>77.191213000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>31</v>
-      </c>
-      <c r="B33" s="6" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="6">
+      <c r="B33" s="4">
         <v>28.594395349999999</v>
       </c>
-      <c r="D33" s="6">
+      <c r="C33" s="4">
         <v>77.178477175543804</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>32</v>
-      </c>
-      <c r="B34" s="6" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="1">
+      <c r="B34" s="1">
         <v>28.648651000000001</v>
       </c>
-      <c r="D34" s="6">
+      <c r="C34" s="4">
         <v>77.177947000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="1">
+      <c r="B35" s="1">
         <v>28.556034</v>
       </c>
-      <c r="D35" s="6">
+      <c r="C35" s="4">
         <v>77.216796000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>34</v>
-      </c>
-      <c r="B36" s="6" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="6">
+      <c r="B36" s="4">
         <v>28.688098400000001</v>
       </c>
-      <c r="D36" s="6">
+      <c r="C36" s="4">
         <v>77.119796752431967</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>35</v>
-      </c>
-      <c r="B37" s="6" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="1">
+      <c r="B37" s="1">
         <v>28.682803</v>
       </c>
-      <c r="D37" s="6">
+      <c r="C37" s="4">
         <v>77.207271000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>36</v>
-      </c>
-      <c r="B38" s="6" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="1">
+      <c r="B38" s="1">
         <v>28.634917000000002</v>
       </c>
-      <c r="D38" s="6">
+      <c r="C38" s="4">
         <v>77.212733999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
-        <v>37</v>
-      </c>
-      <c r="B39" s="6" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="6">
+      <c r="B39" s="4">
         <v>28.626499750000001</v>
       </c>
-      <c r="D39" s="6">
+      <c r="C39" s="4">
         <v>77.236670951577366</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
-        <v>38</v>
-      </c>
-      <c r="B40" s="6" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="1">
+      <c r="B40" s="1">
         <v>28.627009999999999</v>
       </c>
-      <c r="D40" s="6">
+      <c r="C40" s="4">
         <v>77.236171999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
-        <v>39</v>
-      </c>
-      <c r="B41" s="6" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="1">
+      <c r="B41" s="1">
         <v>28.685579000000001</v>
       </c>
-      <c r="D41" s="6">
+      <c r="C41" s="4">
         <v>77.182443000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
-        <v>40</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="6">
+      <c r="B42" s="4">
         <v>28.60325525</v>
       </c>
-      <c r="D42" s="6">
+      <c r="C42" s="4">
         <v>77.321778318517261</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>41</v>
-      </c>
-      <c r="B43" s="6" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="1">
+      <c r="B43" s="1">
         <v>28.584591</v>
       </c>
-      <c r="D43" s="6">
+      <c r="C43" s="4">
         <v>77.163785000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
-        <v>42</v>
-      </c>
-      <c r="B44" s="6" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="1">
+      <c r="B44" s="1">
         <v>28.593083</v>
       </c>
-      <c r="D44" s="6">
+      <c r="C44" s="4">
         <v>77.177177999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
-        <v>43</v>
-      </c>
-      <c r="B45" s="6" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="1">
+      <c r="B45" s="1">
         <v>28.637015000000002</v>
       </c>
-      <c r="D45" s="6">
+      <c r="C45" s="4">
         <v>77.231451000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>44</v>
-      </c>
-      <c r="B46" s="6" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="6">
+      <c r="B46" s="4">
         <v>28.6371532</v>
       </c>
-      <c r="D46" s="6">
+      <c r="C46" s="4">
         <v>77.236998999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>45</v>
-      </c>
-      <c r="B47" s="6" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="6">
+      <c r="B47" s="4">
         <v>28.635584949999998</v>
       </c>
-      <c r="D47" s="6">
+      <c r="C47" s="4">
         <v>77.237823986997427</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>46</v>
-      </c>
-      <c r="B48" s="6" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="6">
+      <c r="B48" s="4">
         <v>28.6517178</v>
       </c>
-      <c r="D48" s="6">
+      <c r="C48" s="4">
         <v>77.221938800000004</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>47</v>
-      </c>
-      <c r="B49" s="6" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="6">
+      <c r="B49" s="4">
         <v>28.5774401</v>
       </c>
-      <c r="D49" s="6">
+      <c r="C49" s="4">
         <v>77.160809060779542</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>48</v>
-      </c>
-      <c r="B50" s="6" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="1">
+      <c r="B50" s="1">
         <v>28.571895999999999</v>
       </c>
-      <c r="D50" s="6">
+      <c r="C50" s="4">
         <v>77.228674999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>49</v>
-      </c>
-      <c r="B51" s="6" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="1">
+      <c r="B51" s="1">
         <v>28.568669</v>
       </c>
-      <c r="D51" s="6">
+      <c r="C51" s="4">
         <v>77.252774000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
-        <v>50</v>
-      </c>
-      <c r="B52" s="6" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="6">
+      <c r="B52" s="4">
         <v>28.566510699999998</v>
       </c>
-      <c r="D52" s="6">
+      <c r="C52" s="4">
         <v>77.251305200000004</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>51</v>
-      </c>
-      <c r="B53" s="6" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="1">
+      <c r="B53" s="1">
         <v>28.631312000000001</v>
       </c>
-      <c r="D53" s="6">
+      <c r="C53" s="4">
         <v>77.239007999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
-        <v>52</v>
-      </c>
-      <c r="B54" s="6" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="6">
+      <c r="B54" s="4">
         <v>28.655157750000001</v>
       </c>
-      <c r="D54" s="6">
+      <c r="C54" s="4">
         <v>77.126449422770833</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
-        <v>53</v>
-      </c>
-      <c r="B55" s="6" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="1">
+      <c r="B55" s="1">
         <v>28.563959000000001</v>
       </c>
-      <c r="D55" s="6">
+      <c r="C55" s="4">
         <v>77.233766000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>54</v>
-      </c>
-      <c r="B56" s="6" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="6">
+      <c r="B56" s="4">
         <v>28.578616950000001</v>
       </c>
-      <c r="D56" s="6">
+      <c r="C56" s="4">
         <v>77.161232095626616</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>55</v>
-      </c>
-      <c r="B57" s="6" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="6">
+      <c r="B57" s="4">
         <v>28.523124599999999</v>
       </c>
-      <c r="D57" s="6">
+      <c r="C57" s="4">
         <v>77.179966500000006</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
-        <v>56</v>
-      </c>
-      <c r="B58" s="6" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="6">
+      <c r="B58" s="4">
         <v>28.685874900000002</v>
       </c>
-      <c r="D58" s="6">
+      <c r="C58" s="4">
         <v>77.206523599999997</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="5">
-        <v>57</v>
-      </c>
-      <c r="B59" s="6" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="6">
+      <c r="B59" s="4">
         <v>28.695771400000002</v>
       </c>
-      <c r="D59" s="6">
+      <c r="C59" s="4">
         <v>77.181491051743905</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
-        <v>58</v>
-      </c>
-      <c r="B60" s="6" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="1">
+      <c r="B60" s="1">
         <v>28.693777999999998</v>
       </c>
-      <c r="D60" s="6">
+      <c r="C60" s="4">
         <v>77.212902</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="5">
-        <v>59</v>
-      </c>
-      <c r="B61" s="6" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="1">
+      <c r="B61" s="1">
         <v>28.556971000000001</v>
       </c>
-      <c r="D61" s="6">
+      <c r="C61" s="4">
         <v>77.209335999999993</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="5">
-        <v>60</v>
-      </c>
-      <c r="B62" s="6" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="6">
+      <c r="B62" s="4">
         <v>28.534789750000002</v>
       </c>
-      <c r="D62" s="6">
+      <c r="C62" s="4">
         <v>77.226883192477118</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="5">
-        <v>61</v>
-      </c>
-      <c r="B63" s="6" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="1">
+      <c r="B63" s="1">
         <v>28.600103000000001</v>
       </c>
-      <c r="D63" s="6">
+      <c r="C63" s="4">
         <v>77.322090000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
-        <v>62</v>
-      </c>
-      <c r="B64" s="6" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="6">
+      <c r="B64" s="4">
         <v>28.732513600000001</v>
       </c>
-      <c r="D64" s="6">
+      <c r="C64" s="4">
         <v>77.118633700000004</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="5">
-        <v>63</v>
-      </c>
-      <c r="B65" s="6" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="6">
+      <c r="B65" s="4">
         <v>28.6554045</v>
       </c>
-      <c r="D65" s="6">
+      <c r="C65" s="4">
         <v>77.123084578225814</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="5">
-        <v>64</v>
-      </c>
-      <c r="B66" s="6" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="6">
+      <c r="B66" s="4">
         <v>28.690319550000002</v>
       </c>
-      <c r="D66" s="6">
+      <c r="C66" s="4">
         <v>77.205962084434304</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="5">
-        <v>65</v>
-      </c>
-      <c r="B67" s="6" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="6">
+      <c r="B67" s="4">
         <v>28.674038599999999</v>
       </c>
-      <c r="D67" s="6">
+      <c r="C67" s="4">
         <v>77.281655336688516</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="5">
-        <v>66</v>
-      </c>
-      <c r="B68" s="6" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="1">
+      <c r="B68" s="1">
         <v>28.673724</v>
       </c>
-      <c r="D68" s="6">
+      <c r="C68" s="4">
         <v>77.322090000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="5">
-        <v>67</v>
-      </c>
-      <c r="B69" s="6" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="6">
+      <c r="B69" s="4">
         <v>28.532839299999999</v>
       </c>
-      <c r="D69" s="6">
+      <c r="C69" s="4">
         <v>77.204295200000004</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="5">
-        <v>68</v>
-      </c>
-      <c r="B70" s="6" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="6">
+      <c r="B70" s="4">
         <v>28.697525200000001</v>
       </c>
-      <c r="D70" s="6">
+      <c r="C70" s="4">
         <v>77.152636693743602</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="5">
-        <v>69</v>
-      </c>
-      <c r="B71" s="6" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="1">
+      <c r="B71" s="1">
         <v>28.656067</v>
       </c>
-      <c r="D71" s="6">
+      <c r="C71" s="4">
         <v>77.187824000000006</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="5">
-        <v>70</v>
-      </c>
-      <c r="B72" s="6" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="1">
+      <c r="B72" s="1">
         <v>28.696660000000001</v>
       </c>
-      <c r="D72" s="6">
+      <c r="C72" s="4">
         <v>77.209213000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="5">
-        <v>71</v>
-      </c>
-      <c r="B73" s="6" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="6">
+      <c r="B73" s="4">
         <v>28.588772299999999</v>
       </c>
-      <c r="D73" s="6">
+      <c r="C73" s="4">
         <v>77.167043863826393</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="5">
-        <v>72</v>
-      </c>
-      <c r="B74" s="6" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="6">
+      <c r="B74" s="4">
         <v>28.685658100000001</v>
       </c>
-      <c r="D74" s="6">
+      <c r="C74" s="4">
         <v>77.211716999999993</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="5">
-        <v>73</v>
-      </c>
-      <c r="B75" s="6" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="1">
+      <c r="B75" s="1">
         <v>28.79618</v>
       </c>
-      <c r="D75" s="6">
+      <c r="C75" s="4">
         <v>77.140542999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="5">
-        <v>74</v>
-      </c>
-      <c r="B76" s="6" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="1">
+      <c r="B76" s="1">
         <v>28.683669999999999</v>
       </c>
-      <c r="D76" s="6">
+      <c r="C76" s="4">
         <v>77.309819000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="5">
-        <v>75</v>
-      </c>
-      <c r="B77" s="6" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="6">
+      <c r="B77" s="4">
         <v>28.690633800000001</v>
       </c>
-      <c r="D77" s="6">
+      <c r="C77" s="4">
         <v>77.209870300000006</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="5">
-        <v>76</v>
-      </c>
-      <c r="B78" s="6" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="6">
+      <c r="B78" s="4">
         <v>28.564789699999999</v>
       </c>
-      <c r="D78" s="6">
+      <c r="C78" s="4">
         <v>77.180626099999998</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="5">
-        <v>77</v>
-      </c>
-      <c r="B79" s="6" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="6">
+      <c r="B79" s="4">
         <v>28.605529900000001</v>
       </c>
-      <c r="D79" s="6">
+      <c r="C79" s="4">
         <v>77.234618299999994</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="5">
-        <v>78</v>
-      </c>
-      <c r="B80" s="6" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="6">
+      <c r="B80" s="4">
         <v>28.550339399999999</v>
       </c>
-      <c r="D80" s="6">
+      <c r="C80" s="4">
         <v>77.174617499999997</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="5">
-        <v>79</v>
-      </c>
-      <c r="B81" s="6" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="6">
+      <c r="B81" s="4">
         <v>28.6492611</v>
       </c>
-      <c r="D81" s="6">
+      <c r="C81" s="4">
         <v>77.237299800000002</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="5">
-        <v>80</v>
-      </c>
-      <c r="B82" s="6" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="6">
+      <c r="B82" s="4">
         <v>28.6811179</v>
       </c>
-      <c r="D82" s="6">
+      <c r="C82" s="4">
         <v>77.305022500000007</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="5">
-        <v>81</v>
-      </c>
-      <c r="B83" s="6" t="s">
+    <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="1">
+      <c r="B83" s="1">
         <v>28.514499000000001</v>
       </c>
-      <c r="D83" s="6">
+      <c r="C83" s="4">
         <v>77.299042999999998</v>
       </c>
     </row>

--- a/data/ducoordinates.xlsx
+++ b/data/ducoordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\projects\neighborhood-segementation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE90F56-40B7-46C6-B21E-FF389E0239AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6155992D-1CE2-4D99-8EB2-5214F675F8D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/ducoordinates.xlsx
+++ b/data/ducoordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\projects\neighborhood-segementation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6155992D-1CE2-4D99-8EB2-5214F675F8D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA5DDD9-1CA7-4EAB-AC73-8DED194381A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>College Name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Ayurvedic &amp; Unani Tibia College</t>
   </si>
   <si>
-    <t>Bhagini Nivedita College</t>
-  </si>
-  <si>
     <t>Bharati College</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
   </si>
   <si>
     <t>Deen Dayal Upadhyaya College</t>
-  </si>
-  <si>
-    <t>Delhi College of Arts &amp; Commerce</t>
   </si>
   <si>
     <t>Delhi Institute of Pharmaceutical Sciences and Research</t>
@@ -670,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,10 +770,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>28.619291499999999</v>
+        <v>28.626680400000001</v>
       </c>
       <c r="C9" s="4">
-        <v>76.932148348016327</v>
+        <v>77.232539726066648</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -787,32 +781,32 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>28.626680400000001</v>
+        <v>28.601142899999999</v>
       </c>
       <c r="C10" s="4">
-        <v>77.232539726066648</v>
+        <v>77.068208774986104</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4">
-        <v>28.601142899999999</v>
+      <c r="B11" s="1">
+        <v>28.700728000000002</v>
       </c>
       <c r="C11" s="4">
-        <v>77.068208774986104</v>
+        <v>77.286866000000003</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1">
-        <v>28.700728000000002</v>
+      <c r="B12" s="4">
+        <v>28.653162999999999</v>
       </c>
       <c r="C12" s="4">
-        <v>77.286866000000003</v>
+        <v>77.268342000000004</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -820,32 +814,32 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>28.653162999999999</v>
+        <v>28.623734599999999</v>
       </c>
       <c r="C13" s="4">
-        <v>77.268342000000004</v>
+        <v>77.238107099999993</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4">
-        <v>28.623734599999999</v>
+      <c r="B14" s="1">
+        <v>28.583952</v>
       </c>
       <c r="C14" s="4">
-        <v>77.238107099999993</v>
+        <v>77.157776999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1">
-        <v>28.583952</v>
+      <c r="B15" s="4">
+        <v>28.53355165</v>
       </c>
       <c r="C15" s="4">
-        <v>77.157776999999996</v>
+        <v>77.226847184222635</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -853,10 +847,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>28.53355165</v>
+        <v>28.688182600000001</v>
       </c>
       <c r="C16" s="4">
-        <v>77.226847184222635</v>
+        <v>77.205711699999995</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -864,10 +858,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>28.688182600000001</v>
+        <v>28.627880999999999</v>
       </c>
       <c r="C17" s="4">
-        <v>77.205711699999995</v>
+        <v>77.112318666956298</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -875,10 +869,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>28.627880999999999</v>
+        <v>28.517031899999999</v>
       </c>
       <c r="C18" s="4">
-        <v>77.112318666956298</v>
+        <v>77.224170414215806</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -886,32 +880,32 @@
         <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>28.577828</v>
+        <v>28.540233000000001</v>
       </c>
       <c r="C19" s="4">
-        <v>77.184747000000002</v>
+        <v>77.255627000000004</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4">
-        <v>28.517031899999999</v>
+      <c r="B20" s="1">
+        <v>28.595327999999999</v>
       </c>
       <c r="C20" s="4">
-        <v>77.224170414215806</v>
+        <v>77.239884000000004</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1">
-        <v>28.540233000000001</v>
+      <c r="B21" s="4">
+        <v>28.5907293</v>
       </c>
       <c r="C21" s="4">
-        <v>77.255627000000004</v>
+        <v>77.230973500000005</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -919,10 +913,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>28.595327999999999</v>
+        <v>28.684100000000001</v>
       </c>
       <c r="C22" s="4">
-        <v>77.239884000000004</v>
+        <v>77.308233999999999</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -930,21 +924,21 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>28.5907293</v>
+        <v>28.555014</v>
       </c>
       <c r="C23" s="4">
-        <v>77.230973500000005</v>
+        <v>77.218434999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1">
-        <v>28.684100000000001</v>
+      <c r="B24" s="4">
+        <v>28.5507633</v>
       </c>
       <c r="C24" s="4">
-        <v>77.308233999999999</v>
+        <v>77.232148800000004</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -952,21 +946,21 @@
         <v>26</v>
       </c>
       <c r="B25" s="4">
-        <v>28.555014</v>
+        <v>28.6839987</v>
       </c>
       <c r="C25" s="4">
-        <v>77.218434999999999</v>
+        <v>77.212060899999997</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="4">
-        <v>28.5507633</v>
+      <c r="B26" s="1">
+        <v>28.562135999999999</v>
       </c>
       <c r="C26" s="4">
-        <v>77.232148800000004</v>
+        <v>77.275014999999996</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -974,21 +968,21 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>28.6839987</v>
+        <v>28.6310261</v>
       </c>
       <c r="C27" s="4">
-        <v>77.212060899999997</v>
+        <v>77.072316766695266</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1">
-        <v>28.562135999999999</v>
+      <c r="B28" s="4">
+        <v>28.680090849999999</v>
       </c>
       <c r="C28" s="4">
-        <v>77.275014999999996</v>
+        <v>77.225400004993986</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -996,21 +990,21 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>28.6310261</v>
+        <v>28.570219349999999</v>
       </c>
       <c r="C29" s="4">
-        <v>77.072316766695266</v>
+        <v>77.217849970336232</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="4">
-        <v>28.680090849999999</v>
+      <c r="B30" s="1">
+        <v>28.641165000000001</v>
       </c>
       <c r="C30" s="4">
-        <v>77.225400004993986</v>
+        <v>77.191213000000005</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1018,10 +1012,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>28.570219349999999</v>
+        <v>28.594395349999999</v>
       </c>
       <c r="C31" s="4">
-        <v>77.217849970336232</v>
+        <v>77.178477175543804</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1029,32 +1023,32 @@
         <v>33</v>
       </c>
       <c r="B32" s="1">
-        <v>28.641165000000001</v>
+        <v>28.648651000000001</v>
       </c>
       <c r="C32" s="4">
-        <v>77.191213000000005</v>
+        <v>77.177947000000003</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="4">
-        <v>28.594395349999999</v>
+      <c r="B33" s="1">
+        <v>28.556034</v>
       </c>
       <c r="C33" s="4">
-        <v>77.178477175543804</v>
+        <v>77.216796000000002</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="1">
-        <v>28.648651000000001</v>
+      <c r="B34" s="4">
+        <v>28.688098400000001</v>
       </c>
       <c r="C34" s="4">
-        <v>77.177947000000003</v>
+        <v>77.119796752431967</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1062,32 +1056,32 @@
         <v>36</v>
       </c>
       <c r="B35" s="1">
-        <v>28.556034</v>
+        <v>28.682803</v>
       </c>
       <c r="C35" s="4">
-        <v>77.216796000000002</v>
+        <v>77.207271000000006</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="4">
-        <v>28.688098400000001</v>
+      <c r="B36" s="1">
+        <v>28.634917000000002</v>
       </c>
       <c r="C36" s="4">
-        <v>77.119796752431967</v>
+        <v>77.212733999999998</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="1">
-        <v>28.682803</v>
+      <c r="B37" s="4">
+        <v>28.626499750000001</v>
       </c>
       <c r="C37" s="4">
-        <v>77.207271000000006</v>
+        <v>77.236670951577366</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1095,32 +1089,32 @@
         <v>39</v>
       </c>
       <c r="B38" s="1">
-        <v>28.634917000000002</v>
+        <v>28.627009999999999</v>
       </c>
       <c r="C38" s="4">
-        <v>77.212733999999998</v>
+        <v>77.236171999999996</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="4">
-        <v>28.626499750000001</v>
+      <c r="B39" s="1">
+        <v>28.685579000000001</v>
       </c>
       <c r="C39" s="4">
-        <v>77.236670951577366</v>
+        <v>77.182443000000006</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="1">
-        <v>28.627009999999999</v>
+      <c r="B40" s="4">
+        <v>28.60325525</v>
       </c>
       <c r="C40" s="4">
-        <v>77.236171999999996</v>
+        <v>77.321778318517261</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1128,21 +1122,21 @@
         <v>42</v>
       </c>
       <c r="B41" s="1">
-        <v>28.685579000000001</v>
+        <v>28.584591</v>
       </c>
       <c r="C41" s="4">
-        <v>77.182443000000006</v>
+        <v>77.163785000000004</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="4">
-        <v>28.60325525</v>
+      <c r="B42" s="1">
+        <v>28.593083</v>
       </c>
       <c r="C42" s="4">
-        <v>77.321778318517261</v>
+        <v>77.177177999999998</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1150,32 +1144,32 @@
         <v>44</v>
       </c>
       <c r="B43" s="1">
-        <v>28.584591</v>
+        <v>28.637015000000002</v>
       </c>
       <c r="C43" s="4">
-        <v>77.163785000000004</v>
+        <v>77.231451000000007</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="1">
-        <v>28.593083</v>
+      <c r="B44" s="4">
+        <v>28.6371532</v>
       </c>
       <c r="C44" s="4">
-        <v>77.177177999999998</v>
+        <v>77.236998999999997</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="1">
-        <v>28.637015000000002</v>
+      <c r="B45" s="4">
+        <v>28.635584949999998</v>
       </c>
       <c r="C45" s="4">
-        <v>77.231451000000007</v>
+        <v>77.237823986997427</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1183,10 +1177,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="4">
-        <v>28.6371532</v>
+        <v>28.6517178</v>
       </c>
       <c r="C46" s="4">
-        <v>77.236998999999997</v>
+        <v>77.221938800000004</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1194,43 +1188,43 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>28.635584949999998</v>
+        <v>28.5774401</v>
       </c>
       <c r="C47" s="4">
-        <v>77.237823986997427</v>
+        <v>77.160809060779542</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="4">
-        <v>28.6517178</v>
+      <c r="B48" s="1">
+        <v>28.571895999999999</v>
       </c>
       <c r="C48" s="4">
-        <v>77.221938800000004</v>
+        <v>77.228674999999996</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="4">
-        <v>28.5774401</v>
+      <c r="B49" s="1">
+        <v>28.568669</v>
       </c>
       <c r="C49" s="4">
-        <v>77.160809060779542</v>
+        <v>77.252774000000002</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="1">
-        <v>28.571895999999999</v>
+      <c r="B50" s="4">
+        <v>28.566510699999998</v>
       </c>
       <c r="C50" s="4">
-        <v>77.228674999999996</v>
+        <v>77.251305200000004</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1238,10 +1232,10 @@
         <v>52</v>
       </c>
       <c r="B51" s="1">
-        <v>28.568669</v>
+        <v>28.631312000000001</v>
       </c>
       <c r="C51" s="4">
-        <v>77.252774000000002</v>
+        <v>77.239007999999998</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1249,10 +1243,10 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>28.566510699999998</v>
+        <v>28.655157750000001</v>
       </c>
       <c r="C52" s="4">
-        <v>77.251305200000004</v>
+        <v>77.126449422770833</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1260,10 +1254,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="1">
-        <v>28.631312000000001</v>
+        <v>28.563959000000001</v>
       </c>
       <c r="C53" s="4">
-        <v>77.239007999999998</v>
+        <v>77.233766000000003</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1271,21 +1265,21 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>28.655157750000001</v>
+        <v>28.578616950000001</v>
       </c>
       <c r="C54" s="4">
-        <v>77.126449422770833</v>
+        <v>77.161232095626616</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="1">
-        <v>28.563959000000001</v>
+      <c r="B55" s="4">
+        <v>28.523124599999999</v>
       </c>
       <c r="C55" s="4">
-        <v>77.233766000000003</v>
+        <v>77.179966500000006</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1293,10 +1287,10 @@
         <v>57</v>
       </c>
       <c r="B56" s="4">
-        <v>28.578616950000001</v>
+        <v>28.685874900000002</v>
       </c>
       <c r="C56" s="4">
-        <v>77.161232095626616</v>
+        <v>77.206523599999997</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1304,43 +1298,43 @@
         <v>58</v>
       </c>
       <c r="B57" s="4">
-        <v>28.523124599999999</v>
+        <v>28.695771400000002</v>
       </c>
       <c r="C57" s="4">
-        <v>77.179966500000006</v>
+        <v>77.181491051743905</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="4">
-        <v>28.685874900000002</v>
+        <v>82</v>
+      </c>
+      <c r="B58" s="1">
+        <v>28.693777999999998</v>
       </c>
       <c r="C58" s="4">
-        <v>77.206523599999997</v>
+        <v>77.212902</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="4">
-        <v>28.695771400000002</v>
+        <v>59</v>
+      </c>
+      <c r="B59" s="1">
+        <v>28.556971000000001</v>
       </c>
       <c r="C59" s="4">
-        <v>77.181491051743905</v>
+        <v>77.209335999999993</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="1">
-        <v>28.693777999999998</v>
+        <v>60</v>
+      </c>
+      <c r="B60" s="4">
+        <v>28.534789750000002</v>
       </c>
       <c r="C60" s="4">
-        <v>77.212902</v>
+        <v>77.226883192477118</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1348,10 +1342,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="1">
-        <v>28.556971000000001</v>
+        <v>28.600103000000001</v>
       </c>
       <c r="C61" s="4">
-        <v>77.209335999999993</v>
+        <v>77.322090000000003</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1359,21 +1353,21 @@
         <v>62</v>
       </c>
       <c r="B62" s="4">
-        <v>28.534789750000002</v>
+        <v>28.732513600000001</v>
       </c>
       <c r="C62" s="4">
-        <v>77.226883192477118</v>
+        <v>77.118633700000004</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="1">
-        <v>28.600103000000001</v>
+      <c r="B63" s="4">
+        <v>28.6554045</v>
       </c>
       <c r="C63" s="4">
-        <v>77.322090000000003</v>
+        <v>77.123084578225814</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1381,10 +1375,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="4">
-        <v>28.732513600000001</v>
+        <v>28.690319550000002</v>
       </c>
       <c r="C64" s="4">
-        <v>77.118633700000004</v>
+        <v>77.205962084434304</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1392,21 +1386,21 @@
         <v>65</v>
       </c>
       <c r="B65" s="4">
-        <v>28.6554045</v>
+        <v>28.674038599999999</v>
       </c>
       <c r="C65" s="4">
-        <v>77.123084578225814</v>
+        <v>77.281655336688516</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="4">
-        <v>28.690319550000002</v>
+      <c r="B66" s="1">
+        <v>28.673724</v>
       </c>
       <c r="C66" s="4">
-        <v>77.205962084434304</v>
+        <v>77.322090000000003</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1414,109 +1408,109 @@
         <v>67</v>
       </c>
       <c r="B67" s="4">
-        <v>28.674038599999999</v>
+        <v>28.532839299999999</v>
       </c>
       <c r="C67" s="4">
-        <v>77.281655336688516</v>
+        <v>77.204295200000004</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="1">
-        <v>28.673724</v>
+      <c r="B68" s="4">
+        <v>28.697525200000001</v>
       </c>
       <c r="C68" s="4">
-        <v>77.322090000000003</v>
+        <v>77.152636693743602</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="4">
-        <v>28.532839299999999</v>
+      <c r="B69" s="1">
+        <v>28.656067</v>
       </c>
       <c r="C69" s="4">
-        <v>77.204295200000004</v>
+        <v>77.187824000000006</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="4">
-        <v>28.697525200000001</v>
+      <c r="B70" s="1">
+        <v>28.696660000000001</v>
       </c>
       <c r="C70" s="4">
-        <v>77.152636693743602</v>
+        <v>77.209213000000005</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="1">
-        <v>28.656067</v>
+      <c r="B71" s="4">
+        <v>28.588772299999999</v>
       </c>
       <c r="C71" s="4">
-        <v>77.187824000000006</v>
+        <v>77.167043863826393</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="1">
-        <v>28.696660000000001</v>
+      <c r="B72" s="4">
+        <v>28.685658100000001</v>
       </c>
       <c r="C72" s="4">
-        <v>77.209213000000005</v>
+        <v>77.211716999999993</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="4">
-        <v>28.588772299999999</v>
+      <c r="B73" s="1">
+        <v>28.79618</v>
       </c>
       <c r="C73" s="4">
-        <v>77.167043863826393</v>
+        <v>77.140542999999994</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="4">
-        <v>28.685658100000001</v>
+      <c r="B74" s="1">
+        <v>28.683669999999999</v>
       </c>
       <c r="C74" s="4">
-        <v>77.211716999999993</v>
+        <v>77.309819000000005</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="1">
-        <v>28.79618</v>
+      <c r="B75" s="4">
+        <v>28.690633800000001</v>
       </c>
       <c r="C75" s="4">
-        <v>77.140542999999994</v>
+        <v>77.209870300000006</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="1">
-        <v>28.683669999999999</v>
+      <c r="B76" s="4">
+        <v>28.564789699999999</v>
       </c>
       <c r="C76" s="4">
-        <v>77.309819000000005</v>
+        <v>77.180626099999998</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1524,10 +1518,10 @@
         <v>77</v>
       </c>
       <c r="B77" s="4">
-        <v>28.690633800000001</v>
+        <v>28.605529900000001</v>
       </c>
       <c r="C77" s="4">
-        <v>77.209870300000006</v>
+        <v>77.234618299999994</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1535,10 +1529,10 @@
         <v>78</v>
       </c>
       <c r="B78" s="4">
-        <v>28.564789699999999</v>
+        <v>28.550339399999999</v>
       </c>
       <c r="C78" s="4">
-        <v>77.180626099999998</v>
+        <v>77.174617499999997</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1546,10 +1540,10 @@
         <v>79</v>
       </c>
       <c r="B79" s="4">
-        <v>28.605529900000001</v>
+        <v>28.6492611</v>
       </c>
       <c r="C79" s="4">
-        <v>77.234618299999994</v>
+        <v>77.237299800000002</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1557,42 +1551,20 @@
         <v>80</v>
       </c>
       <c r="B80" s="4">
-        <v>28.550339399999999</v>
+        <v>28.6811179</v>
       </c>
       <c r="C80" s="4">
-        <v>77.174617499999997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>77.305022500000007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="4">
-        <v>28.6492611</v>
+      <c r="B81" s="1">
+        <v>28.514499000000001</v>
       </c>
       <c r="C81" s="4">
-        <v>77.237299800000002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="4">
-        <v>28.6811179</v>
-      </c>
-      <c r="C82" s="4">
-        <v>77.305022500000007</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="1">
-        <v>28.514499000000001</v>
-      </c>
-      <c r="C83" s="4">
         <v>77.299042999999998</v>
       </c>
     </row>

--- a/data/ducoordinates.xlsx
+++ b/data/ducoordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\projects\neighborhood-segementation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA5DDD9-1CA7-4EAB-AC73-8DED194381A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6DB838-1B59-4D86-B624-6F4AF42EE6BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>College Name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Chacha Nehru Bal Chikitsalaya</t>
   </si>
   <si>
-    <t>College of Art</t>
-  </si>
-  <si>
     <t>College of Nursing at Army Hospital (R&amp;R)</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>Janki Devi Memorial College</t>
   </si>
   <si>
-    <t>Jesus &amp; Mary College</t>
-  </si>
-  <si>
     <t>Kalindi College for Women</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
   </si>
   <si>
     <t>Maharshi Valmiki College of Education</t>
-  </si>
-  <si>
-    <t>Maitreyi College for Women</t>
   </si>
   <si>
     <t>Mata Sundri College for Women</t>
@@ -664,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A42" activeCellId="2" sqref="A13:XFD13 A31:XFD31 A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,22 +804,22 @@
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4">
-        <v>28.623734599999999</v>
+      <c r="B13" s="1">
+        <v>28.583952</v>
       </c>
       <c r="C13" s="4">
-        <v>77.238107099999993</v>
+        <v>77.157776999999996</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1">
-        <v>28.583952</v>
+      <c r="B14" s="4">
+        <v>28.53355165</v>
       </c>
       <c r="C14" s="4">
-        <v>77.157776999999996</v>
+        <v>77.226847184222635</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -836,10 +827,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>28.53355165</v>
+        <v>28.688182600000001</v>
       </c>
       <c r="C15" s="4">
-        <v>77.226847184222635</v>
+        <v>77.205711699999995</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -847,10 +838,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>28.688182600000001</v>
+        <v>28.627880999999999</v>
       </c>
       <c r="C16" s="4">
-        <v>77.205711699999995</v>
+        <v>77.112318666956298</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -858,21 +849,21 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>28.627880999999999</v>
+        <v>28.517031899999999</v>
       </c>
       <c r="C17" s="4">
-        <v>77.112318666956298</v>
+        <v>77.224170414215806</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4">
-        <v>28.517031899999999</v>
+      <c r="B18" s="1">
+        <v>28.540233000000001</v>
       </c>
       <c r="C18" s="4">
-        <v>77.224170414215806</v>
+        <v>77.255627000000004</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -880,43 +871,43 @@
         <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>28.540233000000001</v>
+        <v>28.595327999999999</v>
       </c>
       <c r="C19" s="4">
-        <v>77.255627000000004</v>
+        <v>77.239884000000004</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1">
-        <v>28.595327999999999</v>
+      <c r="B20" s="4">
+        <v>28.5907293</v>
       </c>
       <c r="C20" s="4">
-        <v>77.239884000000004</v>
+        <v>77.230973500000005</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4">
-        <v>28.5907293</v>
+      <c r="B21" s="1">
+        <v>28.684100000000001</v>
       </c>
       <c r="C21" s="4">
-        <v>77.230973500000005</v>
+        <v>77.308233999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1">
-        <v>28.684100000000001</v>
+      <c r="B22" s="4">
+        <v>28.555014</v>
       </c>
       <c r="C22" s="4">
-        <v>77.308233999999999</v>
+        <v>77.218434999999999</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -924,10 +915,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>28.555014</v>
+        <v>28.5507633</v>
       </c>
       <c r="C23" s="4">
-        <v>77.218434999999999</v>
+        <v>77.232148800000004</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -935,32 +926,32 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>28.5507633</v>
+        <v>28.6839987</v>
       </c>
       <c r="C24" s="4">
-        <v>77.232148800000004</v>
+        <v>77.212060899999997</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="4">
-        <v>28.6839987</v>
+      <c r="B25" s="1">
+        <v>28.562135999999999</v>
       </c>
       <c r="C25" s="4">
-        <v>77.212060899999997</v>
+        <v>77.275014999999996</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1">
-        <v>28.562135999999999</v>
+      <c r="B26" s="4">
+        <v>28.6310261</v>
       </c>
       <c r="C26" s="4">
-        <v>77.275014999999996</v>
+        <v>77.072316766695266</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -968,10 +959,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>28.6310261</v>
+        <v>28.680090849999999</v>
       </c>
       <c r="C27" s="4">
-        <v>77.072316766695266</v>
+        <v>77.225400004993986</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -979,21 +970,21 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>28.680090849999999</v>
+        <v>28.570219349999999</v>
       </c>
       <c r="C28" s="4">
-        <v>77.225400004993986</v>
+        <v>77.217849970336232</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="4">
-        <v>28.570219349999999</v>
+      <c r="B29" s="1">
+        <v>28.641165000000001</v>
       </c>
       <c r="C29" s="4">
-        <v>77.217849970336232</v>
+        <v>77.191213000000005</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1001,32 +992,32 @@
         <v>31</v>
       </c>
       <c r="B30" s="1">
-        <v>28.641165000000001</v>
+        <v>28.648651000000001</v>
       </c>
       <c r="C30" s="4">
-        <v>77.191213000000005</v>
+        <v>77.177947000000003</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4">
-        <v>28.594395349999999</v>
+      <c r="B31" s="1">
+        <v>28.556034</v>
       </c>
       <c r="C31" s="4">
-        <v>77.178477175543804</v>
+        <v>77.216796000000002</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="1">
-        <v>28.648651000000001</v>
+      <c r="B32" s="4">
+        <v>28.688098400000001</v>
       </c>
       <c r="C32" s="4">
-        <v>77.177947000000003</v>
+        <v>77.119796752431967</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1034,32 +1025,32 @@
         <v>34</v>
       </c>
       <c r="B33" s="1">
-        <v>28.556034</v>
+        <v>28.682803</v>
       </c>
       <c r="C33" s="4">
-        <v>77.216796000000002</v>
+        <v>77.207271000000006</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="4">
-        <v>28.688098400000001</v>
+      <c r="B34" s="1">
+        <v>28.634917000000002</v>
       </c>
       <c r="C34" s="4">
-        <v>77.119796752431967</v>
+        <v>77.212733999999998</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="1">
-        <v>28.682803</v>
+      <c r="B35" s="4">
+        <v>28.626499750000001</v>
       </c>
       <c r="C35" s="4">
-        <v>77.207271000000006</v>
+        <v>77.236670951577366</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1067,32 +1058,32 @@
         <v>37</v>
       </c>
       <c r="B36" s="1">
-        <v>28.634917000000002</v>
+        <v>28.627009999999999</v>
       </c>
       <c r="C36" s="4">
-        <v>77.212733999999998</v>
+        <v>77.236171999999996</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="4">
-        <v>28.626499750000001</v>
+      <c r="B37" s="1">
+        <v>28.685579000000001</v>
       </c>
       <c r="C37" s="4">
-        <v>77.236670951577366</v>
+        <v>77.182443000000006</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="1">
-        <v>28.627009999999999</v>
+      <c r="B38" s="4">
+        <v>28.60325525</v>
       </c>
       <c r="C38" s="4">
-        <v>77.236171999999996</v>
+        <v>77.321778318517261</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1100,54 +1091,54 @@
         <v>40</v>
       </c>
       <c r="B39" s="1">
-        <v>28.685579000000001</v>
+        <v>28.584591</v>
       </c>
       <c r="C39" s="4">
-        <v>77.182443000000006</v>
+        <v>77.163785000000004</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="4">
-        <v>28.60325525</v>
+      <c r="B40" s="1">
+        <v>28.637015000000002</v>
       </c>
       <c r="C40" s="4">
-        <v>77.321778318517261</v>
+        <v>77.231451000000007</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="1">
-        <v>28.584591</v>
+      <c r="B41" s="4">
+        <v>28.6371532</v>
       </c>
       <c r="C41" s="4">
-        <v>77.163785000000004</v>
+        <v>77.236998999999997</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="1">
-        <v>28.593083</v>
+      <c r="B42" s="4">
+        <v>28.635584949999998</v>
       </c>
       <c r="C42" s="4">
-        <v>77.177177999999998</v>
+        <v>77.237823986997427</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="1">
-        <v>28.637015000000002</v>
+      <c r="B43" s="4">
+        <v>28.6517178</v>
       </c>
       <c r="C43" s="4">
-        <v>77.231451000000007</v>
+        <v>77.221938800000004</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1155,32 +1146,32 @@
         <v>45</v>
       </c>
       <c r="B44" s="4">
-        <v>28.6371532</v>
+        <v>28.5774401</v>
       </c>
       <c r="C44" s="4">
-        <v>77.236998999999997</v>
+        <v>77.160809060779542</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="4">
-        <v>28.635584949999998</v>
+      <c r="B45" s="1">
+        <v>28.571895999999999</v>
       </c>
       <c r="C45" s="4">
-        <v>77.237823986997427</v>
+        <v>77.228674999999996</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="4">
-        <v>28.6517178</v>
+      <c r="B46" s="1">
+        <v>28.568669</v>
       </c>
       <c r="C46" s="4">
-        <v>77.221938800000004</v>
+        <v>77.252774000000002</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1188,10 +1179,10 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>28.5774401</v>
+        <v>28.566510699999998</v>
       </c>
       <c r="C47" s="4">
-        <v>77.160809060779542</v>
+        <v>77.251305200000004</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1199,43 +1190,43 @@
         <v>49</v>
       </c>
       <c r="B48" s="1">
-        <v>28.571895999999999</v>
+        <v>28.631312000000001</v>
       </c>
       <c r="C48" s="4">
-        <v>77.228674999999996</v>
+        <v>77.239007999999998</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="1">
-        <v>28.568669</v>
+      <c r="B49" s="4">
+        <v>28.655157750000001</v>
       </c>
       <c r="C49" s="4">
-        <v>77.252774000000002</v>
+        <v>77.126449422770833</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="4">
-        <v>28.566510699999998</v>
+      <c r="B50" s="1">
+        <v>28.563959000000001</v>
       </c>
       <c r="C50" s="4">
-        <v>77.251305200000004</v>
+        <v>77.233766000000003</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="1">
-        <v>28.631312000000001</v>
+      <c r="B51" s="4">
+        <v>28.578616950000001</v>
       </c>
       <c r="C51" s="4">
-        <v>77.239007999999998</v>
+        <v>77.161232095626616</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1243,21 +1234,21 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>28.655157750000001</v>
+        <v>28.523124599999999</v>
       </c>
       <c r="C52" s="4">
-        <v>77.126449422770833</v>
+        <v>77.179966500000006</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="1">
-        <v>28.563959000000001</v>
+      <c r="B53" s="4">
+        <v>28.685874900000002</v>
       </c>
       <c r="C53" s="4">
-        <v>77.233766000000003</v>
+        <v>77.206523599999997</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1265,65 +1256,65 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>28.578616950000001</v>
+        <v>28.695771400000002</v>
       </c>
       <c r="C54" s="4">
-        <v>77.161232095626616</v>
+        <v>77.181491051743905</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="4">
-        <v>28.523124599999999</v>
+        <v>79</v>
+      </c>
+      <c r="B55" s="1">
+        <v>28.693777999999998</v>
       </c>
       <c r="C55" s="4">
-        <v>77.179966500000006</v>
+        <v>77.212902</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="4">
-        <v>28.685874900000002</v>
+        <v>56</v>
+      </c>
+      <c r="B56" s="1">
+        <v>28.556971000000001</v>
       </c>
       <c r="C56" s="4">
-        <v>77.206523599999997</v>
+        <v>77.209335999999993</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="4">
-        <v>28.695771400000002</v>
+        <v>28.534789750000002</v>
       </c>
       <c r="C57" s="4">
-        <v>77.181491051743905</v>
+        <v>77.226883192477118</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1">
-        <v>28.693777999999998</v>
+        <v>28.600103000000001</v>
       </c>
       <c r="C58" s="4">
-        <v>77.212902</v>
+        <v>77.322090000000003</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="1">
-        <v>28.556971000000001</v>
+      <c r="B59" s="4">
+        <v>28.732513600000001</v>
       </c>
       <c r="C59" s="4">
-        <v>77.209335999999993</v>
+        <v>77.118633700000004</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1331,21 +1322,21 @@
         <v>60</v>
       </c>
       <c r="B60" s="4">
-        <v>28.534789750000002</v>
+        <v>28.6554045</v>
       </c>
       <c r="C60" s="4">
-        <v>77.226883192477118</v>
+        <v>77.123084578225814</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="1">
-        <v>28.600103000000001</v>
+      <c r="B61" s="4">
+        <v>28.690319550000002</v>
       </c>
       <c r="C61" s="4">
-        <v>77.322090000000003</v>
+        <v>77.205962084434304</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1353,21 +1344,21 @@
         <v>62</v>
       </c>
       <c r="B62" s="4">
-        <v>28.732513600000001</v>
+        <v>28.674038599999999</v>
       </c>
       <c r="C62" s="4">
-        <v>77.118633700000004</v>
+        <v>77.281655336688516</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="4">
-        <v>28.6554045</v>
+      <c r="B63" s="1">
+        <v>28.673724</v>
       </c>
       <c r="C63" s="4">
-        <v>77.123084578225814</v>
+        <v>77.322090000000003</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1375,10 +1366,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="4">
-        <v>28.690319550000002</v>
+        <v>28.532839299999999</v>
       </c>
       <c r="C64" s="4">
-        <v>77.205962084434304</v>
+        <v>77.204295200000004</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1386,10 +1377,10 @@
         <v>65</v>
       </c>
       <c r="B65" s="4">
-        <v>28.674038599999999</v>
+        <v>28.697525200000001</v>
       </c>
       <c r="C65" s="4">
-        <v>77.281655336688516</v>
+        <v>77.152636693743602</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1397,21 +1388,21 @@
         <v>66</v>
       </c>
       <c r="B66" s="1">
-        <v>28.673724</v>
+        <v>28.656067</v>
       </c>
       <c r="C66" s="4">
-        <v>77.322090000000003</v>
+        <v>77.187824000000006</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="4">
-        <v>28.532839299999999</v>
+      <c r="B67" s="1">
+        <v>28.696660000000001</v>
       </c>
       <c r="C67" s="4">
-        <v>77.204295200000004</v>
+        <v>77.209213000000005</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1419,21 +1410,21 @@
         <v>68</v>
       </c>
       <c r="B68" s="4">
-        <v>28.697525200000001</v>
+        <v>28.588772299999999</v>
       </c>
       <c r="C68" s="4">
-        <v>77.152636693743602</v>
+        <v>77.167043863826393</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="1">
-        <v>28.656067</v>
+      <c r="B69" s="4">
+        <v>28.685658100000001</v>
       </c>
       <c r="C69" s="4">
-        <v>77.187824000000006</v>
+        <v>77.211716999999993</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1441,21 +1432,21 @@
         <v>70</v>
       </c>
       <c r="B70" s="1">
-        <v>28.696660000000001</v>
+        <v>28.79618</v>
       </c>
       <c r="C70" s="4">
-        <v>77.209213000000005</v>
+        <v>77.140542999999994</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="4">
-        <v>28.588772299999999</v>
+      <c r="B71" s="1">
+        <v>28.683669999999999</v>
       </c>
       <c r="C71" s="4">
-        <v>77.167043863826393</v>
+        <v>77.309819000000005</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1463,32 +1454,32 @@
         <v>72</v>
       </c>
       <c r="B72" s="4">
-        <v>28.685658100000001</v>
+        <v>28.690633800000001</v>
       </c>
       <c r="C72" s="4">
-        <v>77.211716999999993</v>
+        <v>77.209870300000006</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="1">
-        <v>28.79618</v>
+      <c r="B73" s="4">
+        <v>28.564789699999999</v>
       </c>
       <c r="C73" s="4">
-        <v>77.140542999999994</v>
+        <v>77.180626099999998</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="1">
-        <v>28.683669999999999</v>
+      <c r="B74" s="4">
+        <v>28.605529900000001</v>
       </c>
       <c r="C74" s="4">
-        <v>77.309819000000005</v>
+        <v>77.234618299999994</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1496,10 +1487,10 @@
         <v>75</v>
       </c>
       <c r="B75" s="4">
-        <v>28.690633800000001</v>
+        <v>28.550339399999999</v>
       </c>
       <c r="C75" s="4">
-        <v>77.209870300000006</v>
+        <v>77.174617499999997</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1507,10 +1498,10 @@
         <v>76</v>
       </c>
       <c r="B76" s="4">
-        <v>28.564789699999999</v>
+        <v>28.6492611</v>
       </c>
       <c r="C76" s="4">
-        <v>77.180626099999998</v>
+        <v>77.237299800000002</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1518,53 +1509,20 @@
         <v>77</v>
       </c>
       <c r="B77" s="4">
-        <v>28.605529900000001</v>
+        <v>28.6811179</v>
       </c>
       <c r="C77" s="4">
-        <v>77.234618299999994</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>77.305022500000007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="4">
-        <v>28.550339399999999</v>
+      <c r="B78" s="1">
+        <v>28.514499000000001</v>
       </c>
       <c r="C78" s="4">
-        <v>77.174617499999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="4">
-        <v>28.6492611</v>
-      </c>
-      <c r="C79" s="4">
-        <v>77.237299800000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" s="4">
-        <v>28.6811179</v>
-      </c>
-      <c r="C80" s="4">
-        <v>77.305022500000007</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="1">
-        <v>28.514499000000001</v>
-      </c>
-      <c r="C81" s="4">
         <v>77.299042999999998</v>
       </c>
     </row>
